--- a/01-lab/results/bisection_method_results.xlsx
+++ b/01-lab/results/bisection_method_results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="181" uniqueCount="49">
   <si>
     <t xml:space="preserve">_x0005__x0002__x0007_</t>
   </si>
